--- a/medicine/Psychotrope/Sazerac/Sazerac.xlsx
+++ b/medicine/Psychotrope/Sazerac/Sazerac.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Sazerac est l'un des plus vieux cocktails connus, toujours populaire dans certaines régions des États-Unis, notamment à La Nouvelle-Orléans.
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce cocktail tient son nom de la maison de cognac Sazerac de Forge et Fils (devenue Sazerac de Forge et Kotniski, avant de disparaître dans une acquisition en 1965 faite à Angoulême).  Un cognac aurait été donc utilisé à l'origine à la base de ce cocktail, remplacé plus tard par un whisky de seigle[1],[2].  La recette originale fait également appel à quelques gouttes de cocktail bitter, plus précisément celui préparé à l'époque vendu par l'apothicaire Antoine Amédée Peychaud, toujours vendu sous la marque Peychaud's[2]. Le cocktail faisait également appel à l'absinthe, qui fut par la suite interdite (avant d'être à nouveau autorisée en novembre 1988)[3]. Les établissements américains utilisent parfois du pastis au lieu de l'absinthe. À La Nouvelle-Orléans, on préférera toutefois au pastis un peu d'alcool d'Herbsaint (Legendre). La Sazerac Company, l'entreprise à l'origine du café en question, racheta la distillerie du Kentucky produisant le whisky de seigle qu'elle utilisait pour le cocktail, et commercialise un Kentucky Straight Rye Whisky sous la marque Sazerac. Il existe un prémix vendu sous le nom de Sazerac, composé de brandy et de bourbon ; certains puristes dénoncent l'utilisation de ce dernier type de whisky pour préparer ce cocktail.
-En 2008, il est proclamé cocktail officiel de la Nouvelle-Orléans[1],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce cocktail tient son nom de la maison de cognac Sazerac de Forge et Fils (devenue Sazerac de Forge et Kotniski, avant de disparaître dans une acquisition en 1965 faite à Angoulême).  Un cognac aurait été donc utilisé à l'origine à la base de ce cocktail, remplacé plus tard par un whisky de seigle,.  La recette originale fait également appel à quelques gouttes de cocktail bitter, plus précisément celui préparé à l'époque vendu par l'apothicaire Antoine Amédée Peychaud, toujours vendu sous la marque Peychaud's. Le cocktail faisait également appel à l'absinthe, qui fut par la suite interdite (avant d'être à nouveau autorisée en novembre 1988). Les établissements américains utilisent parfois du pastis au lieu de l'absinthe. À La Nouvelle-Orléans, on préférera toutefois au pastis un peu d'alcool d'Herbsaint (Legendre). La Sazerac Company, l'entreprise à l'origine du café en question, racheta la distillerie du Kentucky produisant le whisky de seigle qu'elle utilisait pour le cocktail, et commercialise un Kentucky Straight Rye Whisky sous la marque Sazerac. Il existe un prémix vendu sous le nom de Sazerac, composé de brandy et de bourbon ; certains puristes dénoncent l'utilisation de ce dernier type de whisky pour préparer ce cocktail.
+En 2008, il est proclamé cocktail officiel de la Nouvelle-Orléans,.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Ingrédients</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Un Sazerac se prépare en rinçant un verre avec un fond d'absinthe ou de pastis. Trois à quatre traits de cocktail bitter sont ensuite ajoutés à une dose de Rye whisky (whisky de seigle). Le tout est servi avec ou sans glaçon, garni d'un zeste de citron.
 </t>
@@ -575,7 +591,9 @@
           <t>Dans la culture populaire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Dans le film Malcolm X, Malcolm commande un Sazerac.
 Dans la série NCIS : Nouvelle-Orléans, le Docteur Loretta Wade boit un Sazerac, son cocktail de prédilection.
